--- a/data/DatasetStories.xlsx
+++ b/data/DatasetStories.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciana.tanevitch\Downloads\SHACL4J\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="AR1">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Los story points son una unidad de medida para expresar un estimado del esfuerzo total que será requerido para implementar completamente una porción de trabajo
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Los story points son una unidad de medida para expresar un estimado del esfuerzo total que será requerido para implementar completamente una porción de trabajo
 == costo en mi ontologia
 	-Luciana Tanevitch</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -28,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
   <si>
     <t>Project</t>
   </si>
@@ -409,65 +425,76 @@
   </si>
   <si>
     <t>Consultar el estado de mi trámite</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy h:mm"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="7"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFEA4335"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="5"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="7"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -475,7 +502,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -485,74 +512,71 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -742,30 +766,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="38" max="39" width="22.25"/>
-    <col customWidth="1" min="40" max="40" width="30.0"/>
-    <col customWidth="1" min="41" max="41" width="30.5"/>
+    <col min="11" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="22.28515625" customWidth="1"/>
+    <col min="40" max="40" width="30" customWidth="1"/>
+    <col min="41" max="41" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +905,7 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="15" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -896,19 +924,22 @@
         <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -938,10 +969,10 @@
         <v>55</v>
       </c>
       <c r="K2" s="7">
-        <v>44354.43194444444</v>
+        <v>44354.431944444441</v>
       </c>
       <c r="L2" s="7">
-        <v>44354.43263888889</v>
+        <v>44354.432638888888</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -971,7 +1002,7 @@
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
-      <c r="AL2" s="3" t="b">
+      <c r="AL2" s="4">
         <v>1</v>
       </c>
       <c r="AM2" s="3" t="s">
@@ -985,14 +1016,17 @@
       </c>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
-      <c r="AR2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS2" s="4"/>
+      <c r="AR2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>2</v>
+      </c>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1022,10 +1056,10 @@
         <v>64</v>
       </c>
       <c r="K3" s="7">
-        <v>44354.42916666667</v>
+        <v>44354.429166666669</v>
       </c>
       <c r="L3" s="7">
-        <v>44354.42986111111</v>
+        <v>44354.429861111108</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="4"/>
@@ -1054,7 +1088,7 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
-      <c r="AL3" s="9" t="b">
+      <c r="AL3" s="16">
         <v>1</v>
       </c>
       <c r="AM3" s="3" t="s">
@@ -1068,14 +1102,17 @@
       </c>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
-      <c r="AR3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS3" s="4"/>
+      <c r="AR3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>2</v>
+      </c>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1105,13 +1142,13 @@
         <v>73</v>
       </c>
       <c r="K4" s="7">
-        <v>44351.59166666667</v>
+        <v>44351.591666666667</v>
       </c>
       <c r="L4" s="7">
-        <v>44351.59166666667</v>
+        <v>44351.591666666667</v>
       </c>
       <c r="M4" s="7">
-        <v>44354.43263888889</v>
+        <v>44354.432638888888</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1139,28 +1176,31 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
-      <c r="AL4" s="3" t="b">
+      <c r="AL4" s="4">
         <v>1</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AM4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AN4" s="11" t="s">
+      <c r="AN4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AO4" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
-      <c r="AR4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS4" s="4"/>
+      <c r="AR4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>2</v>
+      </c>
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1222,7 +1262,7 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
-      <c r="AL5" s="3" t="b">
+      <c r="AL5" s="4">
         <v>1</v>
       </c>
       <c r="AM5" s="3" t="s">
@@ -1236,14 +1276,17 @@
       </c>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AS5" s="4"/>
+      <c r="AR5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>3</v>
+      </c>
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1276,10 +1319,10 @@
         <v>44013.472916666666</v>
       </c>
       <c r="L6" s="7">
-        <v>44015.58819444444</v>
+        <v>44015.588194444441</v>
       </c>
       <c r="M6" s="7">
-        <v>44015.58819444444</v>
+        <v>44015.588194444441</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1307,28 +1350,31 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="3" t="b">
+      <c r="AL6" s="4">
         <v>1</v>
       </c>
-      <c r="AM6" s="12" t="s">
+      <c r="AM6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AN6" s="12" t="s">
+      <c r="AN6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" s="13" t="s">
+      <c r="AO6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AP6" s="14"/>
+      <c r="AP6" s="13"/>
       <c r="AQ6" s="4"/>
-      <c r="AR6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AS6" s="4"/>
+      <c r="AR6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>4</v>
+      </c>
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1358,7 +1404,7 @@
         <v>64</v>
       </c>
       <c r="K7" s="7">
-        <v>44012.68680555555</v>
+        <v>44012.686805555553</v>
       </c>
       <c r="L7" s="7">
         <v>44015.592361111114</v>
@@ -1392,7 +1438,7 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
-      <c r="AL7" s="5" t="b">
+      <c r="AL7" s="16">
         <v>0</v>
       </c>
       <c r="AM7" s="3" t="s">
@@ -1406,14 +1452,17 @@
       </c>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-      <c r="AR7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS7" s="4"/>
+      <c r="AR7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>2</v>
+      </c>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1477,28 +1526,31 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
-      <c r="AL8" s="9" t="b">
+      <c r="AL8" s="16">
         <v>1</v>
       </c>
-      <c r="AM8" s="15" t="s">
+      <c r="AM8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AN8" s="11" t="s">
+      <c r="AN8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AO8" s="11" t="s">
+      <c r="AO8" s="10" t="s">
         <v>95</v>
       </c>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS8" s="4"/>
+      <c r="AR8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>2</v>
+      </c>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1531,10 +1583,10 @@
         <v>44000.631944444445</v>
       </c>
       <c r="L9" s="7">
-        <v>44011.53194444445</v>
+        <v>44011.531944444447</v>
       </c>
       <c r="M9" s="7">
-        <v>44011.53194444445</v>
+        <v>44011.531944444447</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1562,28 +1614,31 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
-      <c r="AL9" s="3" t="b">
+      <c r="AL9" s="4">
         <v>1</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AM9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AN9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AO9" s="12" t="s">
+      <c r="AO9" s="11" t="s">
         <v>89</v>
       </c>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
-      <c r="AR9" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>2</v>
+      </c>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1613,7 +1668,7 @@
         <v>73</v>
       </c>
       <c r="K10" s="7">
-        <v>43986.48263888889</v>
+        <v>43986.482638888891</v>
       </c>
       <c r="L10" s="7">
         <v>44011.53125</v>
@@ -1647,7 +1702,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
-      <c r="AL10" s="3"/>
+      <c r="AL10" s="4"/>
       <c r="AM10" s="3" t="s">
         <v>98</v>
       </c>
@@ -1659,14 +1714,17 @@
       </c>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
-      <c r="AR10" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AS10" s="4"/>
+      <c r="AR10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>3</v>
+      </c>
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1696,7 +1754,7 @@
         <v>55</v>
       </c>
       <c r="K11" s="7">
-        <v>43985.52013888889</v>
+        <v>43985.520138888889</v>
       </c>
       <c r="L11" s="7">
         <v>44011.53125</v>
@@ -1730,7 +1788,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
-      <c r="AL11" s="9" t="b">
+      <c r="AL11" s="16">
         <v>1</v>
       </c>
       <c r="AM11" s="3" t="s">
@@ -1744,14 +1802,17 @@
       </c>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AS11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>4</v>
+      </c>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1781,7 +1842,7 @@
         <v>64</v>
       </c>
       <c r="K12" s="7">
-        <v>43985.51944444444</v>
+        <v>43985.519444444442</v>
       </c>
       <c r="L12" s="7">
         <v>44011.53125</v>
@@ -1813,7 +1874,7 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
-      <c r="AL12" s="3" t="b">
+      <c r="AL12" s="4">
         <v>0</v>
       </c>
       <c r="AM12" s="3" t="s">
@@ -1827,14 +1888,17 @@
       </c>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AS12" s="4"/>
+      <c r="AR12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>5</v>
+      </c>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1864,7 +1928,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="7">
-        <v>43985.51944444444</v>
+        <v>43985.519444444442</v>
       </c>
       <c r="L13" s="7">
         <v>44011.53125</v>
@@ -1896,7 +1960,7 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
-      <c r="AL13" s="3" t="b">
+      <c r="AL13" s="4">
         <v>0</v>
       </c>
       <c r="AM13" s="3" t="s">
@@ -1910,14 +1974,17 @@
       </c>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
-      <c r="AR13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AS13" s="4"/>
+      <c r="AR13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>1</v>
+      </c>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1947,7 +2014,7 @@
         <v>73</v>
       </c>
       <c r="K14" s="7">
-        <v>43985.51944444444</v>
+        <v>43985.519444444442</v>
       </c>
       <c r="L14" s="7">
         <v>44011.53125</v>
@@ -1979,7 +2046,7 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="9" t="b">
+      <c r="AL14" s="16">
         <v>1</v>
       </c>
       <c r="AM14" s="3" t="s">
@@ -1993,14 +2060,17 @@
       </c>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS14" s="4"/>
+      <c r="AR14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>2</v>
+      </c>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -2030,13 +2100,13 @@
         <v>73</v>
       </c>
       <c r="K15" s="7">
-        <v>43985.51875</v>
+        <v>43985.518750000003</v>
       </c>
       <c r="L15" s="7">
-        <v>44011.53055555555</v>
+        <v>44011.530555555553</v>
       </c>
       <c r="M15" s="7">
-        <v>44011.53055555555</v>
+        <v>44011.530555555553</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2062,7 +2132,7 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="3" t="b">
+      <c r="AL15" s="4">
         <v>1</v>
       </c>
       <c r="AM15" s="3" t="s">
@@ -2076,14 +2146,17 @@
       </c>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS15" s="4"/>
+      <c r="AR15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>2</v>
+      </c>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2116,7 +2189,7 @@
         <v>43985.509722222225</v>
       </c>
       <c r="L16" s="7">
-        <v>44004.65972222222</v>
+        <v>44004.659722222219</v>
       </c>
       <c r="M16" s="7">
         <v>44004.65902777778</v>
@@ -2145,7 +2218,7 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="3" t="b">
+      <c r="AL16" s="4">
         <v>1</v>
       </c>
       <c r="AM16" s="3" t="s">
@@ -2159,14 +2232,17 @@
       </c>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS16" s="4"/>
+      <c r="AR16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>2</v>
+      </c>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2196,13 +2272,13 @@
         <v>64</v>
       </c>
       <c r="K17" s="7">
-        <v>43985.4875</v>
+        <v>43985.487500000003</v>
       </c>
       <c r="L17" s="7">
-        <v>44004.65416666667</v>
+        <v>44004.654166666667</v>
       </c>
       <c r="M17" s="7">
-        <v>44004.65416666667</v>
+        <v>44004.654166666667</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2228,7 +2304,7 @@
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
-      <c r="AL17" s="5"/>
+      <c r="AL17" s="16"/>
       <c r="AM17" s="3" t="s">
         <v>120</v>
       </c>
@@ -2240,14 +2316,17 @@
       </c>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS17" s="4"/>
+      <c r="AR17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>2</v>
+      </c>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -2277,7 +2356,7 @@
         <v>73</v>
       </c>
       <c r="K18" s="7">
-        <v>43980.63611111111</v>
+        <v>43980.636111111111</v>
       </c>
       <c r="L18" s="7">
         <v>43987.529861111114</v>
@@ -2309,7 +2388,7 @@
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="3" t="b">
+      <c r="AL18" s="4">
         <v>1</v>
       </c>
       <c r="AM18" s="3" t="s">
@@ -2323,14 +2402,17 @@
       </c>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS18" s="4"/>
+      <c r="AR18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>2</v>
+      </c>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2392,7 +2474,7 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
-      <c r="AL19" s="3" t="b">
+      <c r="AL19" s="4">
         <v>1</v>
       </c>
       <c r="AM19" s="3" t="s">
@@ -2406,12 +2488,15 @@
       </c>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
-      <c r="AR19" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AS19" s="4"/>
+      <c r="AR19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>2</v>
+      </c>
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AL1:AL990">
@@ -2424,7 +2509,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/DatasetStories.xlsx
+++ b/data/DatasetStories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciana.tanevitch\Downloads\SHACL4J\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Proyectos\SHACL4J\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
   </numFmts>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -558,6 +558,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,10 +780,10 @@
   <dimension ref="A1:AV19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS10" sqref="AS10"/>
+      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1089,7 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
-      <c r="AL3" s="16">
+      <c r="AL3" s="4">
         <v>1</v>
       </c>
       <c r="AM3" s="3" t="s">
@@ -1438,7 +1439,7 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
-      <c r="AL7" s="16">
+      <c r="AL7" s="18">
         <v>0</v>
       </c>
       <c r="AM7" s="3" t="s">
@@ -1526,7 +1527,7 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
-      <c r="AL8" s="16">
+      <c r="AL8" s="18">
         <v>1</v>
       </c>
       <c r="AM8" s="14" t="s">
@@ -1614,7 +1615,7 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
-      <c r="AL9" s="4">
+      <c r="AL9" s="18">
         <v>1</v>
       </c>
       <c r="AM9" s="11" t="s">
@@ -1702,7 +1703,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
+      <c r="AL10" s="18"/>
       <c r="AM10" s="3" t="s">
         <v>98</v>
       </c>
@@ -1788,7 +1789,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
-      <c r="AL11" s="16">
+      <c r="AL11" s="18">
         <v>1</v>
       </c>
       <c r="AM11" s="3" t="s">
@@ -2046,7 +2047,7 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="16">
+      <c r="AL14" s="18">
         <v>1</v>
       </c>
       <c r="AM14" s="3" t="s">
@@ -2132,7 +2133,7 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="4">
+      <c r="AL15" s="18">
         <v>1</v>
       </c>
       <c r="AM15" s="3" t="s">
@@ -2218,7 +2219,7 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="4">
+      <c r="AL16" s="18">
         <v>1</v>
       </c>
       <c r="AM16" s="3" t="s">
@@ -2499,7 +2500,7 @@
       <c r="AV19" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AL1:AL990">
+  <conditionalFormatting sqref="AL7:AL990 AL1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/data/DatasetStories.xlsx
+++ b/data/DatasetStories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Proyectos\SHACL4J\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciana.tanevitch\Downloads\SHACL4J\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
   <si>
     <t>Project</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>B18</t>
-  </si>
-  <si>
-    <t>Permitir que gestione trámites</t>
   </si>
   <si>
     <t>Dar de alta una entidad</t>
@@ -433,11 +430,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -496,6 +493,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -523,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -559,6 +571,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,13 +791,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV19"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -794,7 +808,7 @@
     <col min="41" max="41" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +939,7 @@
         <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>43</v>
@@ -940,7 +954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1027,7 +1041,7 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1127,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1201,7 +1215,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1287,7 +1301,7 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1375,7 +1389,7 @@
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1463,7 +1477,7 @@
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1551,7 +1565,7 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1653,7 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1725,7 +1739,7 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +1827,7 @@
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1899,7 +1913,7 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1985,7 +1999,7 @@
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -2071,7 +2085,7 @@
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -2157,7 +2171,7 @@
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2243,7 +2257,7 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2327,7 +2341,7 @@
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -2389,16 +2403,12 @@
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AN18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO18" s="3" t="s">
+      <c r="AO18" s="17" t="s">
         <v>89</v>
       </c>
       <c r="AP18" s="4"/>
@@ -2413,7 +2423,7 @@
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2479,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="AM19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN19" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="AO19" s="3" t="s">
         <v>60</v>
@@ -2498,6 +2508,9 @@
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
+    </row>
+    <row r="20" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM20" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AL7:AL990 AL1">
